--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2.204947</v>
+      </c>
+      <c r="H2">
+        <v>6.614841</v>
+      </c>
+      <c r="I2">
+        <v>0.03384377946268709</v>
+      </c>
+      <c r="J2">
+        <v>0.03400382310856976</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.9331043333333334</v>
-      </c>
-      <c r="H2">
-        <v>2.799313</v>
-      </c>
-      <c r="I2">
-        <v>0.0200380644147157</v>
-      </c>
-      <c r="J2">
-        <v>0.0201696361339749</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N2">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q2">
-        <v>0.1235305723422222</v>
+        <v>0.3033316188606667</v>
       </c>
       <c r="R2">
-        <v>1.11177515108</v>
+        <v>2.729984569746</v>
       </c>
       <c r="S2">
-        <v>0.00596581350713949</v>
+        <v>0.00980309687124703</v>
       </c>
       <c r="T2">
-        <v>0.006004985571050896</v>
+        <v>0.009849454677293637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H3">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I3">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J3">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N3">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O3">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P3">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q3">
-        <v>0.2913857777612223</v>
+        <v>0.7438770895313335</v>
       </c>
       <c r="R3">
-        <v>2.622471999851</v>
+        <v>6.694893805782001</v>
       </c>
       <c r="S3">
-        <v>0.01407225090757621</v>
+        <v>0.02404068259144006</v>
       </c>
       <c r="T3">
-        <v>0.014164650562924</v>
+        <v>0.02415436843127612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H4">
         <v>22.398687</v>
       </c>
       <c r="I4">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J4">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N4">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q4">
-        <v>0.9884291698799998</v>
+        <v>1.027119168558</v>
       </c>
       <c r="R4">
-        <v>8.895862528919999</v>
+        <v>9.244072517022001</v>
       </c>
       <c r="S4">
-        <v>0.04773542274364805</v>
+        <v>0.03319452401799854</v>
       </c>
       <c r="T4">
-        <v>0.04804885778956668</v>
+        <v>0.03335149740369968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H5">
         <v>22.398687</v>
       </c>
       <c r="I5">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J5">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N5">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O5">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P5">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q5">
-        <v>2.331521638461</v>
+        <v>2.518861767786</v>
       </c>
       <c r="R5">
-        <v>20.983694746149</v>
+        <v>22.669755910074</v>
       </c>
       <c r="S5">
-        <v>0.1125990353576986</v>
+        <v>0.08140478730055867</v>
       </c>
       <c r="T5">
-        <v>0.1133383706728431</v>
+        <v>0.08178974191138305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H6">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I6">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J6">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N6">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q6">
-        <v>3.849777965848889</v>
+        <v>4.350034963431111</v>
       </c>
       <c r="R6">
-        <v>34.64800169264</v>
+        <v>39.15031467088</v>
       </c>
       <c r="S6">
-        <v>0.185922051138261</v>
+        <v>0.1405847972591834</v>
       </c>
       <c r="T6">
-        <v>0.1871428319187886</v>
+        <v>0.1412496078644481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H7">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I7">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J7">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N7">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O7">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P7">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q7">
-        <v>9.08091434790089</v>
+        <v>10.66783397032889</v>
       </c>
       <c r="R7">
-        <v>81.72822913110801</v>
+        <v>96.01050573296</v>
       </c>
       <c r="S7">
-        <v>0.4385557392529551</v>
+        <v>0.3447639590304333</v>
       </c>
       <c r="T7">
-        <v>0.4414353353761278</v>
+        <v>0.3463943112501967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H8">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I8">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J8">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N8">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q8">
-        <v>0.1206436383666667</v>
+        <v>0.1265525117616667</v>
       </c>
       <c r="R8">
-        <v>0.7238618301999999</v>
+        <v>0.75931507057</v>
       </c>
       <c r="S8">
-        <v>0.005826391262273046</v>
+        <v>0.004089934761034956</v>
       </c>
       <c r="T8">
-        <v>0.003909765244854544</v>
+        <v>0.002739517086010882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H9">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I9">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J9">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N9">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O9">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P9">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q9">
-        <v>0.2845760343441667</v>
+        <v>0.3103518006983333</v>
       </c>
       <c r="R9">
-        <v>1.707456206065</v>
+        <v>1.86211080419</v>
       </c>
       <c r="S9">
-        <v>0.01374337961290531</v>
+        <v>0.01002997570065131</v>
       </c>
       <c r="T9">
-        <v>0.009222413246654617</v>
+        <v>0.006718270928423105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H10">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I10">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J10">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N10">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O10">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P10">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q10">
-        <v>1.08241430376</v>
+        <v>3.155661048057778</v>
       </c>
       <c r="R10">
-        <v>9.74172873384</v>
+        <v>28.40094943252</v>
       </c>
       <c r="S10">
-        <v>0.05227436213768156</v>
+        <v>0.1019849202108443</v>
       </c>
       <c r="T10">
-        <v>0.05261760026474247</v>
+        <v>0.1024671960888558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H11">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I11">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J11">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N11">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O11">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P11">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q11">
-        <v>2.553215190222</v>
+        <v>7.738804034982222</v>
       </c>
       <c r="R11">
-        <v>22.978936711998</v>
+        <v>69.64923631484</v>
       </c>
       <c r="S11">
-        <v>0.1233055540798615</v>
+        <v>0.2501033222566086</v>
       </c>
       <c r="T11">
-        <v>0.1241151893524471</v>
+        <v>0.251286034358413</v>
       </c>
     </row>
   </sheetData>
